--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Oxt-Oxtr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Oxt-Oxtr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Oxt</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2933093333333334</v>
+        <v>0.4859603333333333</v>
       </c>
       <c r="H2">
-        <v>0.879928</v>
+        <v>1.457881</v>
       </c>
       <c r="I2">
-        <v>0.2078743580172834</v>
+        <v>0.3153479482432409</v>
       </c>
       <c r="J2">
-        <v>0.2078743580172834</v>
+        <v>0.3153479482432409</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,54 +558,54 @@
         <v>0.129557</v>
       </c>
       <c r="O2">
-        <v>0.5935303872971661</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.5935303872971661</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01266675909955556</v>
+        <v>0.02098652096855556</v>
       </c>
       <c r="R2">
-        <v>0.114000831896</v>
+        <v>0.188878688717</v>
       </c>
       <c r="S2">
-        <v>0.123379748223148</v>
+        <v>0.3153479482432409</v>
       </c>
       <c r="T2">
-        <v>0.123379748223148</v>
+        <v>0.3153479482432409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2933093333333334</v>
+        <v>0.8677463333333333</v>
       </c>
       <c r="H3">
-        <v>0.879928</v>
+        <v>2.603239</v>
       </c>
       <c r="I3">
-        <v>0.2078743580172834</v>
+        <v>0.5630953949168597</v>
       </c>
       <c r="J3">
-        <v>0.2078743580172834</v>
+        <v>0.5630953949168597</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,60 +614,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.029575</v>
+        <v>0.04318566666666667</v>
       </c>
       <c r="N3">
-        <v>0.088725</v>
+        <v>0.129557</v>
       </c>
       <c r="O3">
-        <v>0.4064696127028339</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.4064696127028339</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.008674623533333335</v>
+        <v>0.03747420390255556</v>
       </c>
       <c r="R3">
-        <v>0.0780716118</v>
+        <v>0.337267835123</v>
       </c>
       <c r="S3">
-        <v>0.08449460979413541</v>
+        <v>0.5630953949168597</v>
       </c>
       <c r="T3">
-        <v>0.08449460979413542</v>
+        <v>0.5630953949168597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8677463333333333</v>
+        <v>0.1873223333333333</v>
       </c>
       <c r="H4">
-        <v>2.603239</v>
+        <v>0.561967</v>
       </c>
       <c r="I4">
-        <v>0.6149896763036915</v>
+        <v>0.1215566568398994</v>
       </c>
       <c r="J4">
-        <v>0.6149896763036915</v>
+        <v>0.1215566568398994</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,332 +682,22 @@
         <v>0.129557</v>
       </c>
       <c r="O4">
-        <v>0.5935303872971661</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.5935303872971661</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.03747420390255556</v>
+        <v>0.008089639846555557</v>
       </c>
       <c r="R4">
-        <v>0.337267835123</v>
+        <v>0.072806758619</v>
       </c>
       <c r="S4">
-        <v>0.3650150607602888</v>
+        <v>0.1215566568398994</v>
       </c>
       <c r="T4">
-        <v>0.3650150607602888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.8677463333333333</v>
-      </c>
-      <c r="H5">
-        <v>2.603239</v>
-      </c>
-      <c r="I5">
-        <v>0.6149896763036915</v>
-      </c>
-      <c r="J5">
-        <v>0.6149896763036915</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.029575</v>
-      </c>
-      <c r="N5">
-        <v>0.088725</v>
-      </c>
-      <c r="O5">
-        <v>0.4064696127028339</v>
-      </c>
-      <c r="P5">
-        <v>0.4064696127028339</v>
-      </c>
-      <c r="Q5">
-        <v>0.02566359780833333</v>
-      </c>
-      <c r="R5">
-        <v>0.230972380275</v>
-      </c>
-      <c r="S5">
-        <v>0.2499746155434027</v>
-      </c>
-      <c r="T5">
-        <v>0.2499746155434027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.203338</v>
-      </c>
-      <c r="H6">
-        <v>0.6100139999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.1441098233395858</v>
-      </c>
-      <c r="J6">
-        <v>0.1441098233395858</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.04318566666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.129557</v>
-      </c>
-      <c r="O6">
-        <v>0.5935303872971661</v>
-      </c>
-      <c r="P6">
-        <v>0.5935303872971661</v>
-      </c>
-      <c r="Q6">
-        <v>0.008781287088666666</v>
-      </c>
-      <c r="R6">
-        <v>0.079031583798</v>
-      </c>
-      <c r="S6">
-        <v>0.08553355926007057</v>
-      </c>
-      <c r="T6">
-        <v>0.08553355926007057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.203338</v>
-      </c>
-      <c r="H7">
-        <v>0.6100139999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.1441098233395858</v>
-      </c>
-      <c r="J7">
-        <v>0.1441098233395858</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.029575</v>
-      </c>
-      <c r="N7">
-        <v>0.088725</v>
-      </c>
-      <c r="O7">
-        <v>0.4064696127028339</v>
-      </c>
-      <c r="P7">
-        <v>0.4064696127028339</v>
-      </c>
-      <c r="Q7">
-        <v>0.00601372135</v>
-      </c>
-      <c r="R7">
-        <v>0.05412349214999999</v>
-      </c>
-      <c r="S7">
-        <v>0.05857626407951527</v>
-      </c>
-      <c r="T7">
-        <v>0.05857626407951527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04659966666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.139799</v>
-      </c>
-      <c r="I8">
-        <v>0.03302614233943936</v>
-      </c>
-      <c r="J8">
-        <v>0.03302614233943936</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.04318566666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.129557</v>
-      </c>
-      <c r="O8">
-        <v>0.5935303872971661</v>
-      </c>
-      <c r="P8">
-        <v>0.5935303872971661</v>
-      </c>
-      <c r="Q8">
-        <v>0.002012437671444445</v>
-      </c>
-      <c r="R8">
-        <v>0.018111939043</v>
-      </c>
-      <c r="S8">
-        <v>0.01960201905365878</v>
-      </c>
-      <c r="T8">
-        <v>0.01960201905365878</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04659966666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.139799</v>
-      </c>
-      <c r="I9">
-        <v>0.03302614233943936</v>
-      </c>
-      <c r="J9">
-        <v>0.03302614233943936</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.029575</v>
-      </c>
-      <c r="N9">
-        <v>0.088725</v>
-      </c>
-      <c r="O9">
-        <v>0.4064696127028339</v>
-      </c>
-      <c r="P9">
-        <v>0.4064696127028339</v>
-      </c>
-      <c r="Q9">
-        <v>0.001378185141666667</v>
-      </c>
-      <c r="R9">
-        <v>0.012403666275</v>
-      </c>
-      <c r="S9">
-        <v>0.01342412328578058</v>
-      </c>
-      <c r="T9">
-        <v>0.01342412328578058</v>
+        <v>0.1215566568398994</v>
       </c>
     </row>
   </sheetData>
